--- a/_CIPW/CIPW/AREA5/QAPF_control_points.xlsx
+++ b/_CIPW/CIPW/AREA5/QAPF_control_points.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,6 +413,6460 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B2" t="n">
+        <v>422823.0001388173</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7525442.527047326</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>34.5008545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.066073295</v>
+      </c>
+      <c r="I2" t="n">
+        <v>28.92575344</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B3" t="n">
+        <v>451013.4314993119</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7286868.704686873</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34.4328766</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.873948882</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.78888172</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B4" t="n">
+        <v>594545.9850944348</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7366095.350358819</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40.7407913</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23.59159635</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31.15253355</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B5" t="n">
+        <v>403945.0768397648</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7527910.87798272</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>39.3547211</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.54100142</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30.57927072</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B6" t="n">
+        <v>401216.148465685</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7529882.125589605</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38.7294502</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26.37735386</v>
+      </c>
+      <c r="I6" t="n">
+        <v>30.5283621</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B7" t="n">
+        <v>409155.6666583589</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7388267.661607112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>37.3125305</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.61092826</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.72407512</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B8" t="n">
+        <v>408788.64986577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7525883.127678607</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37.578373</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.26984917</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31.9383436</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B9" t="n">
+        <v>573609.5498119397</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7369187.59580075</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>33.0560417</v>
+      </c>
+      <c r="H9" t="n">
+        <v>29.34069201</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.33222565</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B10" t="n">
+        <v>395739.2028744464</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7550553.333618967</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34.6047211</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.24682777</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.98180843</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B11" t="n">
+        <v>595482.5194309736</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7360555.884229297</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.919548</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24.96727916</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.12914926</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B12" t="n">
+        <v>570295.7162984037</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7194426.892189107</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>37.3839188</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32.6938481</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25.82153418</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B13" t="n">
+        <v>507596.7447241906</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7306910.773843632</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43.6413307</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24.1756511</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23.0407372</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B14" t="n">
+        <v>429046.3551782307</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7547568.77555988</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.0894165</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35.70518954</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24.8294949</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B15" t="n">
+        <v>760472.461105651</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7374813.666059652</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>35.5184975</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26.55903396</v>
+      </c>
+      <c r="I15" t="n">
+        <v>34.65554367</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B16" t="n">
+        <v>586409.6389365081</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7183700.825286468</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.8807335</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37.25640753</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.30796619</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B17" t="n">
+        <v>518399.5160626545</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7280948.900331907</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34.9833374</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32.59892767</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29.31671491</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B18" t="n">
+        <v>447691.7230347765</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7272079.333575497</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31.0297508</v>
+      </c>
+      <c r="H18" t="n">
+        <v>34.85664654000001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30.04215054</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B19" t="n">
+        <v>641757.8655294247</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7154179.916507507</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32.540329</v>
+      </c>
+      <c r="H19" t="n">
+        <v>31.86196267</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31.37752205</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B20" t="n">
+        <v>420719.6780329063</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7525508.513714559</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>34.0029182</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29.38560027</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.91058803</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B21" t="n">
+        <v>620437.5570446817</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7145829.711649289</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>33.7907677</v>
+      </c>
+      <c r="H21" t="n">
+        <v>31.03868813</v>
+      </c>
+      <c r="I21" t="n">
+        <v>32.42140736</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B22" t="n">
+        <v>656030.3435174299</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7188356.034972786</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>37.1161308</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27.7299065</v>
+      </c>
+      <c r="I22" t="n">
+        <v>29.31830274</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B23" t="n">
+        <v>405491.2708980456</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7531595.912204068</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33.6844978</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31.80778321</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29.93128091</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B24" t="n">
+        <v>404713.2604548364</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7529740.381576492</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>39.5578384</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21.64826611</v>
+      </c>
+      <c r="I24" t="n">
+        <v>32.36221712</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B25" t="n">
+        <v>568072.7130961117</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7222234.914685098</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33.768322</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31.4315624</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30.60931474</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B26" t="n">
+        <v>553955.6541633958</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7307428.943578887</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37.1679993</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27.89702302</v>
+      </c>
+      <c r="I26" t="n">
+        <v>30.12811028</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B27" t="n">
+        <v>413821.4916065777</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7529429.834138079</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>38.1153374</v>
+      </c>
+      <c r="H27" t="n">
+        <v>26.12800116</v>
+      </c>
+      <c r="I27" t="n">
+        <v>29.53390182</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B28" t="n">
+        <v>718950.8143728292</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7229561.330213139</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.8934116</v>
+      </c>
+      <c r="H28" t="n">
+        <v>28.0848514</v>
+      </c>
+      <c r="I28" t="n">
+        <v>36.68293417</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B29" t="n">
+        <v>689479.0599372458</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7385840.555939897</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42.0674362</v>
+      </c>
+      <c r="H29" t="n">
+        <v>25.03324559</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25.09882568</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B30" t="n">
+        <v>640364.9592321715</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7183844.981620431</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>35.7219086</v>
+      </c>
+      <c r="H30" t="n">
+        <v>29.12282643</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28.30285284</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B31" t="n">
+        <v>568065.8525246648</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7222217.524079368</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>36.1420288</v>
+      </c>
+      <c r="H31" t="n">
+        <v>29.49780809</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29.03847925</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B32" t="n">
+        <v>408978.8275499512</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7531442.590570908</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>29.7246628</v>
+      </c>
+      <c r="H32" t="n">
+        <v>30.91183202000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33.58641357</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B33" t="n">
+        <v>432660.8029019876</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7287266.453172042</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>33.8245049</v>
+      </c>
+      <c r="H33" t="n">
+        <v>47.93196975</v>
+      </c>
+      <c r="I33" t="n">
+        <v>13.8312191</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B34" t="n">
+        <v>402680.6572135365</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7531672.625937978</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>35.450737</v>
+      </c>
+      <c r="H34" t="n">
+        <v>23.54420974</v>
+      </c>
+      <c r="I34" t="n">
+        <v>35.31070914</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B35" t="n">
+        <v>648062.4098775064</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7156317.765654799</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33.9937477</v>
+      </c>
+      <c r="H35" t="n">
+        <v>27.88661082</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32.70756832</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B36" t="n">
+        <v>585517.9007419647</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7187408.106334507</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>40.3769531</v>
+      </c>
+      <c r="H36" t="n">
+        <v>32.00990555</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20.62674027</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B37" t="n">
+        <v>679482.7733917895</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7379568.764875205</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38.5171814</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27.64343611</v>
+      </c>
+      <c r="I37" t="n">
+        <v>27.05592402</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B38" t="n">
+        <v>697218.2558684414</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7360280.072632506</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>34.2767868</v>
+      </c>
+      <c r="H38" t="n">
+        <v>31.49413733</v>
+      </c>
+      <c r="I38" t="n">
+        <v>31.22313499</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B39" t="n">
+        <v>385901.2558721581</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7564001.44550652</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>29.3232803</v>
+      </c>
+      <c r="H39" t="n">
+        <v>32.85320144</v>
+      </c>
+      <c r="I39" t="n">
+        <v>34.16228024999999</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B40" t="n">
+        <v>424332.5844982759</v>
+      </c>
+      <c r="C40" t="n">
+        <v>7529112.568427877</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>33.9187393</v>
+      </c>
+      <c r="H40" t="n">
+        <v>31.68691655</v>
+      </c>
+      <c r="I40" t="n">
+        <v>29.32484989</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B41" t="n">
+        <v>569643.0684379223</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7222285.613839785</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>31.9106197</v>
+      </c>
+      <c r="H41" t="n">
+        <v>36.39757534</v>
+      </c>
+      <c r="I41" t="n">
+        <v>28.5455894</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B42" t="n">
+        <v>402406.4354549267</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7542852.907356113</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>33.5834045</v>
+      </c>
+      <c r="H42" t="n">
+        <v>29.04400726</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33.02559854</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B43" t="n">
+        <v>437023.185092857</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7532468.581112547</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>31.1815739</v>
+      </c>
+      <c r="H43" t="n">
+        <v>29.08906879</v>
+      </c>
+      <c r="I43" t="n">
+        <v>33.0062252</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B44" t="n">
+        <v>593001.3245233108</v>
+      </c>
+      <c r="C44" t="n">
+        <v>7367918.094725985</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>31.819643</v>
+      </c>
+      <c r="H44" t="n">
+        <v>30.71978014</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33.11873131</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B45" t="n">
+        <v>439224.5486118381</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7565894.75324164</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>36.5262642</v>
+      </c>
+      <c r="H45" t="n">
+        <v>26.02127989</v>
+      </c>
+      <c r="I45" t="n">
+        <v>29.38723493</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B46" t="n">
+        <v>401842.916054123</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7527990.288472353</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>33.673851</v>
+      </c>
+      <c r="H46" t="n">
+        <v>31.79825027</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29.93585429</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B47" t="n">
+        <v>388715.6373236501</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7548996.648429874</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>26.1225796</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36.65990485</v>
+      </c>
+      <c r="I47" t="n">
+        <v>33.66685334</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B48" t="n">
+        <v>433477.7838170429</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7530698.264778861</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>33.8699417</v>
+      </c>
+      <c r="H48" t="n">
+        <v>30.92349645</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28.99291785</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B49" t="n">
+        <v>590088.3297374767</v>
+      </c>
+      <c r="C49" t="n">
+        <v>7193087.563682824</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>34.4963646</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30.02794905</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29.7178352</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B50" t="n">
+        <v>421309.4212496581</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7521773.247238778</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31.6093254</v>
+      </c>
+      <c r="H50" t="n">
+        <v>29.74523297</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32.63415681</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B51" t="n">
+        <v>778993.4381261227</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7299986.83529006</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>33.9959679</v>
+      </c>
+      <c r="H51" t="n">
+        <v>37.34077038</v>
+      </c>
+      <c r="I51" t="n">
+        <v>23.74071348</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B52" t="n">
+        <v>410340.4763310733</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7378952.937187641</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>36.3680954</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30.27331203</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25.81126648</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1509</v>
+      </c>
+      <c r="B53" t="n">
+        <v>463408.7043260257</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7297853.838466587</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>43.9396858</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.72515782</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25.3709127</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="B54" t="n">
+        <v>444667.0044273772</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7562048.963216691</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>31.6495399</v>
+      </c>
+      <c r="H54" t="n">
+        <v>36.57257881</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.70996249</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1524</v>
+      </c>
+      <c r="B55" t="n">
+        <v>421470.9503357491</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7527329.485975892</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>31.8366241</v>
+      </c>
+      <c r="H55" t="n">
+        <v>31.20233733</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32.08072895</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B56" t="n">
+        <v>526067.6630022393</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7281008.696502964</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.9987717</v>
+      </c>
+      <c r="H56" t="n">
+        <v>35.01726998</v>
+      </c>
+      <c r="I56" t="n">
+        <v>30.13133471</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B57" t="n">
+        <v>384404.2276939754</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7591962.608249241</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>30.2910404</v>
+      </c>
+      <c r="H57" t="n">
+        <v>31.2177284</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32.77633589</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B58" t="n">
+        <v>414448.1731552719</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7367681.028654348</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.1576633</v>
+      </c>
+      <c r="H58" t="n">
+        <v>30.5118674</v>
+      </c>
+      <c r="I58" t="n">
+        <v>35.05749668</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="B59" t="n">
+        <v>705283.5520898863</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7362709.877786176</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>33.8641472</v>
+      </c>
+      <c r="H59" t="n">
+        <v>25.77094166</v>
+      </c>
+      <c r="I59" t="n">
+        <v>36.15433974</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B60" t="n">
+        <v>428504.0728901725</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7393290.601893418</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34.8981857</v>
+      </c>
+      <c r="H60" t="n">
+        <v>25.99477443</v>
+      </c>
+      <c r="I60" t="n">
+        <v>33.09646165</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B61" t="n">
+        <v>364167.4705087786</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7297116.842234123</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>24.8149986</v>
+      </c>
+      <c r="H61" t="n">
+        <v>34.8262344</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32.3315548</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B62" t="n">
+        <v>590092.4094163297</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7193098.011324367</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>32.5644302</v>
+      </c>
+      <c r="H62" t="n">
+        <v>32.31344099</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28.81666454</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B63" t="n">
+        <v>754559.5701349006</v>
+      </c>
+      <c r="C63" t="n">
+        <v>7357457.446217685</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>32.770153</v>
+      </c>
+      <c r="H63" t="n">
+        <v>29.17823923</v>
+      </c>
+      <c r="I63" t="n">
+        <v>34.4077145</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B64" t="n">
+        <v>415018.0448537197</v>
+      </c>
+      <c r="C64" t="n">
+        <v>7386252.235449532</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>35.6156273</v>
+      </c>
+      <c r="H64" t="n">
+        <v>24.26541898</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30.74845979</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B65" t="n">
+        <v>393866.9952033143</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7468780.921490044</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>33.4115829</v>
+      </c>
+      <c r="H65" t="n">
+        <v>31.64374359</v>
+      </c>
+      <c r="I65" t="n">
+        <v>29.11840572</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B66" t="n">
+        <v>793848.6559708756</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7290260.126774631</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32.5261574</v>
+      </c>
+      <c r="H66" t="n">
+        <v>39.08590583</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24.81056137</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B67" t="n">
+        <v>410337.1139574873</v>
+      </c>
+      <c r="C67" t="n">
+        <v>7378945.240007831</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>29.7484798</v>
+      </c>
+      <c r="H67" t="n">
+        <v>38.73051567</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26.68460538</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B68" t="n">
+        <v>705411.5012919909</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7381384.438635441</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>31.2793522</v>
+      </c>
+      <c r="H68" t="n">
+        <v>32.90913793</v>
+      </c>
+      <c r="I68" t="n">
+        <v>32.54163243</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B69" t="n">
+        <v>827178.5078480255</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7350027.173207692</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>27.1053391</v>
+      </c>
+      <c r="H69" t="n">
+        <v>26.08701789</v>
+      </c>
+      <c r="I69" t="n">
+        <v>43.74690018</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B70" t="n">
+        <v>704315.0658106438</v>
+      </c>
+      <c r="C70" t="n">
+        <v>7334696.005952516</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>32.2604523</v>
+      </c>
+      <c r="H70" t="n">
+        <v>32.87747788</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27.53435879</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B71" t="n">
+        <v>622134.3892227954</v>
+      </c>
+      <c r="C71" t="n">
+        <v>7240708.73367288</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>33.2539177</v>
+      </c>
+      <c r="H71" t="n">
+        <v>36.98097862</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.06650197</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B72" t="n">
+        <v>420714.5822642142</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7525496.171109289</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="n">
+        <v>29.9029598</v>
+      </c>
+      <c r="H72" t="n">
+        <v>31.57899816</v>
+      </c>
+      <c r="I72" t="n">
+        <v>32.62490789</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="B73" t="n">
+        <v>568070.8652271603</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7222230.230568401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>23.7266655</v>
+      </c>
+      <c r="H73" t="n">
+        <v>40.42847461</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32.66325451</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1786</v>
+      </c>
+      <c r="B74" t="n">
+        <v>517897.6597152865</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7360848.522584329</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28.7632904</v>
+      </c>
+      <c r="H74" t="n">
+        <v>35.59981527</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30.7686058</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1788</v>
+      </c>
+      <c r="B75" t="n">
+        <v>402334.5145603271</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7540991.602727064</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>26.2017956</v>
+      </c>
+      <c r="H75" t="n">
+        <v>34.56451441</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33.77234379</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B76" t="n">
+        <v>572359.5505096086</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7174025.31142854</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>33.5493355</v>
+      </c>
+      <c r="H76" t="n">
+        <v>29.94010481</v>
+      </c>
+      <c r="I76" t="n">
+        <v>31.83188645</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B77" t="n">
+        <v>632953.2160392514</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7259778.363588417</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32.9243965</v>
+      </c>
+      <c r="H77" t="n">
+        <v>29.74530758</v>
+      </c>
+      <c r="I77" t="n">
+        <v>29.84012856</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B78" t="n">
+        <v>727838.3447125108</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7407376.859851267</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27.5506058</v>
+      </c>
+      <c r="H78" t="n">
+        <v>30.42631112</v>
+      </c>
+      <c r="I78" t="n">
+        <v>38.77095167</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B79" t="n">
+        <v>383725.8459431626</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7592006.341748471</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>33.5897255</v>
+      </c>
+      <c r="H79" t="n">
+        <v>27.78944946</v>
+      </c>
+      <c r="I79" t="n">
+        <v>29.2477295</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B80" t="n">
+        <v>414435.8746544203</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7367652.856344703</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>30.9972076</v>
+      </c>
+      <c r="H80" t="n">
+        <v>34.96029252</v>
+      </c>
+      <c r="I80" t="n">
+        <v>27.13612446</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B81" t="n">
+        <v>412673.4235208518</v>
+      </c>
+      <c r="C81" t="n">
+        <v>7382581.441586836</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>29.9242077</v>
+      </c>
+      <c r="H81" t="n">
+        <v>38.24001364999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25.16164246</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B82" t="n">
+        <v>407314.2720218997</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7377190.661707142</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>32.7719536</v>
+      </c>
+      <c r="H82" t="n">
+        <v>34.69786813</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25.75876349</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B83" t="n">
+        <v>723787.2073493205</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7248572.024052578</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>32.3455124</v>
+      </c>
+      <c r="H83" t="n">
+        <v>31.03249041</v>
+      </c>
+      <c r="I83" t="n">
+        <v>29.12460208</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B84" t="n">
+        <v>790262.1937427302</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7317937.23898467</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>28.1836243</v>
+      </c>
+      <c r="H84" t="n">
+        <v>32.36121743</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.61692581</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B85" t="n">
+        <v>598663.1839319061</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7197091.63736374</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>29.7125263</v>
+      </c>
+      <c r="H85" t="n">
+        <v>34.94595429</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29.58641817</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B86" t="n">
+        <v>405767.7027150932</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7375381.027371443</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>31.240345</v>
+      </c>
+      <c r="H86" t="n">
+        <v>31.50993393</v>
+      </c>
+      <c r="I86" t="n">
+        <v>30.72297571</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B87" t="n">
+        <v>762480.8616364233</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7369402.187121131</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>29.0282345</v>
+      </c>
+      <c r="H87" t="n">
+        <v>31.46384957</v>
+      </c>
+      <c r="I87" t="n">
+        <v>30.99191283</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B88" t="n">
+        <v>439843.9287411383</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7406029.903836646</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25.3663177</v>
+      </c>
+      <c r="H88" t="n">
+        <v>39.73967076</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31.02129856</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B89" t="n">
+        <v>382271.6480455336</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7590211.624238232</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>27.1260128</v>
+      </c>
+      <c r="H89" t="n">
+        <v>33.89844507</v>
+      </c>
+      <c r="I89" t="n">
+        <v>31.09251369</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B90" t="n">
+        <v>402335.643714165</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7464744.675496253</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>27.3797035</v>
+      </c>
+      <c r="H90" t="n">
+        <v>39.62113575</v>
+      </c>
+      <c r="I90" t="n">
+        <v>29.64237215</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B91" t="n">
+        <v>383718.8813232478</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7591989.812414211</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>27.7098675</v>
+      </c>
+      <c r="H91" t="n">
+        <v>37.55148887</v>
+      </c>
+      <c r="I91" t="n">
+        <v>28.2002583</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B92" t="n">
+        <v>539831.0236638299</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7440963.848228727</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>25.6513157</v>
+      </c>
+      <c r="H92" t="n">
+        <v>44.65327164</v>
+      </c>
+      <c r="I92" t="n">
+        <v>21.89340974</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B93" t="n">
+        <v>389353.0613288408</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7595463.263758845</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>5</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26.4944496</v>
+      </c>
+      <c r="H93" t="n">
+        <v>34.23883157</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30.36773054</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B94" t="n">
+        <v>383721.7863796732</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7591996.707043167</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29.3834019</v>
+      </c>
+      <c r="H94" t="n">
+        <v>35.91551299</v>
+      </c>
+      <c r="I94" t="n">
+        <v>28.54945941</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B95" t="n">
+        <v>387990.2999005239</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7595529.493387843</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>26.249485</v>
+      </c>
+      <c r="H95" t="n">
+        <v>34.78767757</v>
+      </c>
+      <c r="I95" t="n">
+        <v>31.63949224</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B96" t="n">
+        <v>669452.4467849245</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7336131.153987038</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>33.953331</v>
+      </c>
+      <c r="H96" t="n">
+        <v>27.84636875</v>
+      </c>
+      <c r="I96" t="n">
+        <v>30.01274295</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B97" t="n">
+        <v>391429.212175432</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7563757.379410667</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>26.5281677</v>
+      </c>
+      <c r="H97" t="n">
+        <v>33.25926383</v>
+      </c>
+      <c r="I97" t="n">
+        <v>33.76949808</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B98" t="n">
+        <v>569239.5613440264</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7365353.885484916</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>24.9282722</v>
+      </c>
+      <c r="H98" t="n">
+        <v>36.06977382</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32.32632429</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B99" t="n">
+        <v>404339.0276015802</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7377267.93003197</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" t="n">
+        <v>32.3283463</v>
+      </c>
+      <c r="H99" t="n">
+        <v>23.98040681</v>
+      </c>
+      <c r="I99" t="n">
+        <v>35.89960663</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>2385</v>
+      </c>
+      <c r="B100" t="n">
+        <v>426389.9074570178</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7397057.334183707</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>24.6544971</v>
+      </c>
+      <c r="H100" t="n">
+        <v>40.30282227000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29.4885319</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>2389</v>
+      </c>
+      <c r="B101" t="n">
+        <v>647260.2346404803</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7173046.349524124</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>30.4580097</v>
+      </c>
+      <c r="H101" t="n">
+        <v>34.70375938</v>
+      </c>
+      <c r="I101" t="n">
+        <v>27.94555071</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B102" t="n">
+        <v>422813.0446212821</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7525418.358305623</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>27.3448334</v>
+      </c>
+      <c r="H102" t="n">
+        <v>37.20350762</v>
+      </c>
+      <c r="I102" t="n">
+        <v>28.67929438</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>2443</v>
+      </c>
+      <c r="B103" t="n">
+        <v>409920.3594865833</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7455181.222219932</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>24.2244015</v>
+      </c>
+      <c r="H103" t="n">
+        <v>43.96407945</v>
+      </c>
+      <c r="I103" t="n">
+        <v>28.70976295</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>2445</v>
+      </c>
+      <c r="B104" t="n">
+        <v>469900.8002904762</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7403678.552845351</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>30.4295387</v>
+      </c>
+      <c r="H104" t="n">
+        <v>35.45773126</v>
+      </c>
+      <c r="I104" t="n">
+        <v>25.38592434</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>2449</v>
+      </c>
+      <c r="B105" t="n">
+        <v>464459.3821369232</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7491066.084930793</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>25.6444759</v>
+      </c>
+      <c r="H105" t="n">
+        <v>41.82696873</v>
+      </c>
+      <c r="I105" t="n">
+        <v>26.49350587</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B106" t="n">
+        <v>366853.0474747586</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7220754.392227514</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26.0480385</v>
+      </c>
+      <c r="H106" t="n">
+        <v>45.36697255</v>
+      </c>
+      <c r="I106" t="n">
+        <v>22.39122615</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>2528</v>
+      </c>
+      <c r="B107" t="n">
+        <v>567174.9081824664</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7261232.535008149</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>29.7508736</v>
+      </c>
+      <c r="H107" t="n">
+        <v>31.63254231</v>
+      </c>
+      <c r="I107" t="n">
+        <v>31.43754751</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>2609</v>
+      </c>
+      <c r="B108" t="n">
+        <v>397376.1849744547</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7539315.330421793</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>29.450985</v>
+      </c>
+      <c r="H108" t="n">
+        <v>31.74766459</v>
+      </c>
+      <c r="I108" t="n">
+        <v>30.91019421</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>2614</v>
+      </c>
+      <c r="B109" t="n">
+        <v>747622.3765616242</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7280326.687097363</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>27.1817513</v>
+      </c>
+      <c r="H109" t="n">
+        <v>29.44045618</v>
+      </c>
+      <c r="I109" t="n">
+        <v>36.7972223</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>2617</v>
+      </c>
+      <c r="B110" t="n">
+        <v>450489.7582604677</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7576800.85477192</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>27.0986557</v>
+      </c>
+      <c r="H110" t="n">
+        <v>37.61239853</v>
+      </c>
+      <c r="I110" t="n">
+        <v>28.69515667</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>2620</v>
+      </c>
+      <c r="B111" t="n">
+        <v>710339.3015028904</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7335141.778801956</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>38.9084015</v>
+      </c>
+      <c r="H111" t="n">
+        <v>19.36759837</v>
+      </c>
+      <c r="I111" t="n">
+        <v>27.86395097</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>2640</v>
+      </c>
+      <c r="B112" t="n">
+        <v>396053.62525233</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7373862.411237928</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25.7435284</v>
+      </c>
+      <c r="H112" t="n">
+        <v>42.68359797</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25.26205883</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>2645</v>
+      </c>
+      <c r="B113" t="n">
+        <v>444704.7907449754</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7563900.888378733</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26.5973454</v>
+      </c>
+      <c r="H113" t="n">
+        <v>37.45553515</v>
+      </c>
+      <c r="I113" t="n">
+        <v>29.58828435</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>2713</v>
+      </c>
+      <c r="B114" t="n">
+        <v>443363.6732012552</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7565788.758657504</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>28.7632122</v>
+      </c>
+      <c r="H114" t="n">
+        <v>30.76879309</v>
+      </c>
+      <c r="I114" t="n">
+        <v>29.07864471</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>2722</v>
+      </c>
+      <c r="B115" t="n">
+        <v>367652.259629715</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7256028.81467634</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>28.0881462</v>
+      </c>
+      <c r="H115" t="n">
+        <v>39.94213409</v>
+      </c>
+      <c r="I115" t="n">
+        <v>22.61575772</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>2749</v>
+      </c>
+      <c r="B116" t="n">
+        <v>669640.2285336041</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7345433.276130389</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25.4216824</v>
+      </c>
+      <c r="H116" t="n">
+        <v>34.31515964</v>
+      </c>
+      <c r="I116" t="n">
+        <v>32.29877776</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2763</v>
+      </c>
+      <c r="B117" t="n">
+        <v>600557.637797766</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7364421.865823336</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>31.1229496</v>
+      </c>
+      <c r="H117" t="n">
+        <v>38.18837643</v>
+      </c>
+      <c r="I117" t="n">
+        <v>20.26513387</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2851</v>
+      </c>
+      <c r="B118" t="n">
+        <v>600393.0921995796</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7215709.499915746</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>24.2536011</v>
+      </c>
+      <c r="H118" t="n">
+        <v>36.3870623</v>
+      </c>
+      <c r="I118" t="n">
+        <v>31.74658659</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="B119" t="n">
+        <v>497782.9113988071</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7390496.471405526</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>5</v>
+      </c>
+      <c r="G119" t="n">
+        <v>22.2583733</v>
+      </c>
+      <c r="H119" t="n">
+        <v>38.98551971</v>
+      </c>
+      <c r="I119" t="n">
+        <v>30.2213089</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>2856</v>
+      </c>
+      <c r="B120" t="n">
+        <v>436466.800330822</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7538074.706984714</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>25.438076</v>
+      </c>
+      <c r="H120" t="n">
+        <v>35.34104365</v>
+      </c>
+      <c r="I120" t="n">
+        <v>30.09150104</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>2858</v>
+      </c>
+      <c r="B121" t="n">
+        <v>383723.7338277422</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7592001.328981454</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>31.1773911</v>
+      </c>
+      <c r="H121" t="n">
+        <v>25.88201722</v>
+      </c>
+      <c r="I121" t="n">
+        <v>28.84645268</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>2859</v>
+      </c>
+      <c r="B122" t="n">
+        <v>446965.5634673933</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7573131.755081054</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>30.4101238</v>
+      </c>
+      <c r="H122" t="n">
+        <v>28.98616483</v>
+      </c>
+      <c r="I122" t="n">
+        <v>23.33205047</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>2873</v>
+      </c>
+      <c r="B123" t="n">
+        <v>445475.1194111918</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7567601.635024867</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>27.6687241</v>
+      </c>
+      <c r="H123" t="n">
+        <v>36.73907682000001</v>
+      </c>
+      <c r="I123" t="n">
+        <v>26.98269058</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>2914</v>
+      </c>
+      <c r="B124" t="n">
+        <v>621810.8103163663</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7285316.554902539</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>28.4295044</v>
+      </c>
+      <c r="H124" t="n">
+        <v>44.7389086</v>
+      </c>
+      <c r="I124" t="n">
+        <v>17.3250048</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>2987</v>
+      </c>
+      <c r="B125" t="n">
+        <v>453416.9831956982</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7548850.096561186</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>23.1019459</v>
+      </c>
+      <c r="H125" t="n">
+        <v>36.85819738000001</v>
+      </c>
+      <c r="I125" t="n">
+        <v>32.84254152</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="B126" t="n">
+        <v>611592.6100460046</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7368598.606297649</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" t="n">
+        <v>24.4645672</v>
+      </c>
+      <c r="H126" t="n">
+        <v>38.96438578999999</v>
+      </c>
+      <c r="I126" t="n">
+        <v>27.26270981</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B127" t="n">
+        <v>828987.291295761</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7353960.948327379</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>23.4723034</v>
+      </c>
+      <c r="H127" t="n">
+        <v>27.86604377</v>
+      </c>
+      <c r="I127" t="n">
+        <v>37.42419224</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>3025</v>
+      </c>
+      <c r="B128" t="n">
+        <v>383726.5771532588</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7592008.077162812</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>22.8393993</v>
+      </c>
+      <c r="H128" t="n">
+        <v>35.4745962</v>
+      </c>
+      <c r="I128" t="n">
+        <v>32.84035088</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>3041</v>
+      </c>
+      <c r="B129" t="n">
+        <v>572065.6433788443</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7370981.487775771</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>23.7053051</v>
+      </c>
+      <c r="H129" t="n">
+        <v>30.25308401</v>
+      </c>
+      <c r="I129" t="n">
+        <v>36.49508308999999</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>3090</v>
+      </c>
+      <c r="B130" t="n">
+        <v>570671.744298632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7506660.864765343</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>23.6299</v>
+      </c>
+      <c r="H130" t="n">
+        <v>38.19807096</v>
+      </c>
+      <c r="I130" t="n">
+        <v>28.15668544</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>3106</v>
+      </c>
+      <c r="B131" t="n">
+        <v>539967.4751042218</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7431673.784536626</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>32.3931541</v>
+      </c>
+      <c r="H131" t="n">
+        <v>35.43788817</v>
+      </c>
+      <c r="I131" t="n">
+        <v>19.83961583</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B132" t="n">
+        <v>452174.9311583586</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7556332.266056828</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>22.6352062</v>
+      </c>
+      <c r="H132" t="n">
+        <v>39.34560951</v>
+      </c>
+      <c r="I132" t="n">
+        <v>30.38787289</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B133" t="n">
+        <v>384478.042694183</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7593792.795184806</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21.950386</v>
+      </c>
+      <c r="H133" t="n">
+        <v>39.61352061</v>
+      </c>
+      <c r="I133" t="n">
+        <v>28.02377609</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>3202</v>
+      </c>
+      <c r="B134" t="n">
+        <v>472457.6527888828</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7438943.410384167</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21.8168278</v>
+      </c>
+      <c r="H134" t="n">
+        <v>35.22430385</v>
+      </c>
+      <c r="I134" t="n">
+        <v>33.90999735</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>3225</v>
+      </c>
+      <c r="B135" t="n">
+        <v>796518.4161216137</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7294240.829803186</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G135" t="n">
+        <v>21.0591869</v>
+      </c>
+      <c r="H135" t="n">
+        <v>44.41209774</v>
+      </c>
+      <c r="I135" t="n">
+        <v>26.69433806</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>3261</v>
+      </c>
+      <c r="B136" t="n">
+        <v>439654.4736789956</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7524984.020991635</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>19.398571</v>
+      </c>
+      <c r="H136" t="n">
+        <v>41.73736262</v>
+      </c>
+      <c r="I136" t="n">
+        <v>28.54088898</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>3345</v>
+      </c>
+      <c r="B137" t="n">
+        <v>597874.7966290781</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7377365.426627968</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13.1919203</v>
+      </c>
+      <c r="H137" t="n">
+        <v>36.90570232</v>
+      </c>
+      <c r="I137" t="n">
+        <v>39.52845264</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>3380</v>
+      </c>
+      <c r="B138" t="n">
+        <v>507905.568870945</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7462990.403153609</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17.8482685</v>
+      </c>
+      <c r="H138" t="n">
+        <v>39.99335347</v>
+      </c>
+      <c r="I138" t="n">
+        <v>33.19598806</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>3482</v>
+      </c>
+      <c r="B139" t="n">
+        <v>366329.6275398433</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7326783.189303711</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>26.1902504</v>
+      </c>
+      <c r="H139" t="n">
+        <v>43.01646172</v>
+      </c>
+      <c r="I139" t="n">
+        <v>18.06171092</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>3487</v>
+      </c>
+      <c r="B140" t="n">
+        <v>456361.2898843428</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7383412.108057517</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5</v>
+      </c>
+      <c r="G140" t="n">
+        <v>15.316884</v>
+      </c>
+      <c r="H140" t="n">
+        <v>42.62231502</v>
+      </c>
+      <c r="I140" t="n">
+        <v>32.70170818</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>3500</v>
+      </c>
+      <c r="B141" t="n">
+        <v>444657.8554364101</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7562025.921142353</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20.633707</v>
+      </c>
+      <c r="H141" t="n">
+        <v>40.53088627</v>
+      </c>
+      <c r="I141" t="n">
+        <v>28.95307483</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>3510</v>
+      </c>
+      <c r="B142" t="n">
+        <v>672768.4835952614</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7293509.317555598</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>25.6199951</v>
+      </c>
+      <c r="H142" t="n">
+        <v>35.81154786</v>
+      </c>
+      <c r="I142" t="n">
+        <v>29.59510464</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>3543</v>
+      </c>
+      <c r="B143" t="n">
+        <v>612182.4967714186</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7372330.057555402</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>22.0457554</v>
+      </c>
+      <c r="H143" t="n">
+        <v>37.03216766</v>
+      </c>
+      <c r="I143" t="n">
+        <v>29.57660084</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>3588</v>
+      </c>
+      <c r="B144" t="n">
+        <v>728433.5137220931</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7435412.922395073</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>18.7531528</v>
+      </c>
+      <c r="H144" t="n">
+        <v>49.34344708</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20.88973772</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>3731</v>
+      </c>
+      <c r="B145" t="n">
+        <v>714304.8037613939</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7184478.611043642</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>24.1821365</v>
+      </c>
+      <c r="H145" t="n">
+        <v>29.02392543</v>
+      </c>
+      <c r="I145" t="n">
+        <v>27.38151307</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>3742</v>
+      </c>
+      <c r="B146" t="n">
+        <v>439047.5535942831</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7558462.652592706</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>23.5136795</v>
+      </c>
+      <c r="H146" t="n">
+        <v>35.06181717</v>
+      </c>
+      <c r="I146" t="n">
+        <v>26.97742273</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>3757</v>
+      </c>
+      <c r="B147" t="n">
+        <v>433932.7497139967</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7404311.079104981</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>21.6743069</v>
+      </c>
+      <c r="H147" t="n">
+        <v>42.99299316</v>
+      </c>
+      <c r="I147" t="n">
+        <v>25.80541344</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>3804</v>
+      </c>
+      <c r="B148" t="n">
+        <v>663250.528201481</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7142209.795338459</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>21.5865459</v>
+      </c>
+      <c r="H148" t="n">
+        <v>44.36703546</v>
+      </c>
+      <c r="I148" t="n">
+        <v>21.97725434</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>3833</v>
+      </c>
+      <c r="B149" t="n">
+        <v>468998.8339806726</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7388821.772371144</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>15.8084249</v>
+      </c>
+      <c r="H149" t="n">
+        <v>51.20314293000001</v>
+      </c>
+      <c r="I149" t="n">
+        <v>20.63185906</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>3836</v>
+      </c>
+      <c r="B150" t="n">
+        <v>436408.8218150658</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7506500.594720325</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>17.8991299</v>
+      </c>
+      <c r="H150" t="n">
+        <v>38.35454224</v>
+      </c>
+      <c r="I150" t="n">
+        <v>30.97805556</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>3837</v>
+      </c>
+      <c r="B151" t="n">
+        <v>569006.5176380178</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7374633.408555133</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>5</v>
+      </c>
+      <c r="G151" t="n">
+        <v>19.656868</v>
+      </c>
+      <c r="H151" t="n">
+        <v>37.26893556</v>
+      </c>
+      <c r="I151" t="n">
+        <v>30.07824954</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>3872</v>
+      </c>
+      <c r="B152" t="n">
+        <v>376624.0866571964</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7229605.106066765</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>16.1763935</v>
+      </c>
+      <c r="H152" t="n">
+        <v>44.78733597</v>
+      </c>
+      <c r="I152" t="n">
+        <v>21.72262993</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>3879</v>
+      </c>
+      <c r="B153" t="n">
+        <v>444385.7615036962</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7376206.848085475</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>18.2054234</v>
+      </c>
+      <c r="H153" t="n">
+        <v>47.12798214</v>
+      </c>
+      <c r="I153" t="n">
+        <v>21.55255506</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B154" t="n">
+        <v>431132.6180002625</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7521465.612824399</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>5</v>
+      </c>
+      <c r="G154" t="n">
+        <v>16.0477734</v>
+      </c>
+      <c r="H154" t="n">
+        <v>39.59476742</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28.44985028</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>3948</v>
+      </c>
+      <c r="B155" t="n">
+        <v>584961.2195156019</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7233817.372569075</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>20.6675949</v>
+      </c>
+      <c r="H155" t="n">
+        <v>36.78018266</v>
+      </c>
+      <c r="I155" t="n">
+        <v>26.88173404</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>3959</v>
+      </c>
+      <c r="B156" t="n">
+        <v>446157.5485860738</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7534123.93820927</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+      <c r="G156" t="n">
+        <v>17.094347</v>
+      </c>
+      <c r="H156" t="n">
+        <v>43.34401319</v>
+      </c>
+      <c r="I156" t="n">
+        <v>27.32363701</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>3971</v>
+      </c>
+      <c r="B157" t="n">
+        <v>669236.5653518254</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7248640.712909578</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>17.9130688</v>
+      </c>
+      <c r="H157" t="n">
+        <v>44.16480013</v>
+      </c>
+      <c r="I157" t="n">
+        <v>26.25593627</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>3978</v>
+      </c>
+      <c r="B158" t="n">
+        <v>777512.9831815676</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7307313.468056051</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>15.4569445</v>
+      </c>
+      <c r="H158" t="n">
+        <v>57.46076756000001</v>
+      </c>
+      <c r="I158" t="n">
+        <v>18.08875864</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>4044</v>
+      </c>
+      <c r="B159" t="n">
+        <v>435487.6637338779</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7554822.370589631</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>15.8290682</v>
+      </c>
+      <c r="H159" t="n">
+        <v>38.81672361</v>
+      </c>
+      <c r="I159" t="n">
+        <v>31.39047739</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>4050</v>
+      </c>
+      <c r="B160" t="n">
+        <v>664861.8344592829</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7142306.853326681</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>21.7180462</v>
+      </c>
+      <c r="H160" t="n">
+        <v>47.21002443</v>
+      </c>
+      <c r="I160" t="n">
+        <v>18.05695287</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>granodiorite</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>4065</v>
+      </c>
+      <c r="B161" t="n">
+        <v>713772.8159372762</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7214284.154764948</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>17.6861973</v>
+      </c>
+      <c r="H161" t="n">
+        <v>41.97421624</v>
+      </c>
+      <c r="I161" t="n">
+        <v>26.01170936</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>4072</v>
+      </c>
+      <c r="B162" t="n">
+        <v>439805.1538512177</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7404176.992680821</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="n">
+        <v>16.0944386</v>
+      </c>
+      <c r="H162" t="n">
+        <v>43.52797526000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29.25987414</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>4073</v>
+      </c>
+      <c r="B163" t="n">
+        <v>647141.1239790823</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7254886.228397596</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>25.937397</v>
+      </c>
+      <c r="H163" t="n">
+        <v>35.51202836</v>
+      </c>
+      <c r="I163" t="n">
+        <v>27.45428414</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>4076</v>
+      </c>
+      <c r="B164" t="n">
+        <v>429836.6878292271</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7525240.43409429</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G164" t="n">
+        <v>18.9994106</v>
+      </c>
+      <c r="H164" t="n">
+        <v>34.82015879</v>
+      </c>
+      <c r="I164" t="n">
+        <v>30.81175631</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>4105</v>
+      </c>
+      <c r="B165" t="n">
+        <v>714955.4111270539</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7208770.172444158</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>16.1886749</v>
+      </c>
+      <c r="H165" t="n">
+        <v>43.21699198</v>
+      </c>
+      <c r="I165" t="n">
+        <v>25.86347712</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>4135</v>
+      </c>
+      <c r="B166" t="n">
+        <v>612695.2306431417</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7180841.293022046</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>5</v>
+      </c>
+      <c r="G166" t="n">
+        <v>17.0069847</v>
+      </c>
+      <c r="H166" t="n">
+        <v>47.32949138</v>
+      </c>
+      <c r="I166" t="n">
+        <v>22.54238622</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>4139</v>
+      </c>
+      <c r="B167" t="n">
+        <v>431933.0220172554</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7525164.216234216</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>5</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12.6269417</v>
+      </c>
+      <c r="H167" t="n">
+        <v>45.37800993</v>
+      </c>
+      <c r="I167" t="n">
+        <v>26.77907447</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>4225</v>
+      </c>
+      <c r="B168" t="n">
+        <v>571477.7003448418</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7335667.556724924</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>15.2925777</v>
+      </c>
+      <c r="H168" t="n">
+        <v>44.17336252</v>
+      </c>
+      <c r="I168" t="n">
+        <v>25.42151468</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>quartz monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>4278</v>
+      </c>
+      <c r="B169" t="n">
+        <v>725637.832248533</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7149922.107346477</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>13.0507174</v>
+      </c>
+      <c r="H169" t="n">
+        <v>46.92815823</v>
+      </c>
+      <c r="I169" t="n">
+        <v>25.12960777</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>4310</v>
+      </c>
+      <c r="B170" t="n">
+        <v>674219.4674038889</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7269409.352310479</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>5</v>
+      </c>
+      <c r="G170" t="n">
+        <v>19.0126114</v>
+      </c>
+      <c r="H170" t="n">
+        <v>36.521751</v>
+      </c>
+      <c r="I170" t="n">
+        <v>29.125585</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>4317</v>
+      </c>
+      <c r="B171" t="n">
+        <v>710749.5401521167</v>
+      </c>
+      <c r="C171" t="n">
+        <v>7223356.075473163</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16.9161873</v>
+      </c>
+      <c r="H171" t="n">
+        <v>34.24253019</v>
+      </c>
+      <c r="I171" t="n">
+        <v>22.26164021</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>monzo granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>4385</v>
+      </c>
+      <c r="B172" t="n">
+        <v>593191.4187559042</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7195042.290479658</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>5</v>
+      </c>
+      <c r="G172" t="n">
+        <v>14.1757946</v>
+      </c>
+      <c r="H172" t="n">
+        <v>51.16564219</v>
+      </c>
+      <c r="I172" t="n">
+        <v>21.62101331</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>4429</v>
+      </c>
+      <c r="B173" t="n">
+        <v>669087.1574735446</v>
+      </c>
+      <c r="C173" t="n">
+        <v>7138823.143244307</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>12.6868782</v>
+      </c>
+      <c r="H173" t="n">
+        <v>46.67187466</v>
+      </c>
+      <c r="I173" t="n">
+        <v>24.70721854</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>4516</v>
+      </c>
+      <c r="B174" t="n">
+        <v>576221.5915295435</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7382257.330581195</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.383042395</v>
+      </c>
+      <c r="H174" t="n">
+        <v>43.0509489</v>
+      </c>
+      <c r="I174" t="n">
+        <v>30.3973133</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>4522</v>
+      </c>
+      <c r="B175" t="n">
+        <v>713603.1766074058</v>
+      </c>
+      <c r="C175" t="n">
+        <v>7149041.025246967</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>5</v>
+      </c>
+      <c r="G175" t="n">
+        <v>8.68646908</v>
+      </c>
+      <c r="H175" t="n">
+        <v>51.62246011000001</v>
+      </c>
+      <c r="I175" t="n">
+        <v>15.18561479</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>4562</v>
+      </c>
+      <c r="B176" t="n">
+        <v>575266.3307147442</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7185257.558376712</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>5</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5.31158161</v>
+      </c>
+      <c r="H176" t="n">
+        <v>60.42337079</v>
+      </c>
+      <c r="I176" t="n">
+        <v>16.19808831</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>4594</v>
+      </c>
+      <c r="B177" t="n">
+        <v>604290.0810529721</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7364583.701289264</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>5</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9.106707569999999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>48.23974385</v>
+      </c>
+      <c r="I177" t="n">
+        <v>17.64534895</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>4628</v>
+      </c>
+      <c r="B178" t="n">
+        <v>432284.6912633065</v>
+      </c>
+      <c r="C178" t="n">
+        <v>7396923.161243825</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>5</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>43.05167979</v>
+      </c>
+      <c r="I178" t="n">
+        <v>24.63473871</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>monzonite</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>4643</v>
+      </c>
+      <c r="B179" t="n">
+        <v>439758.1563198671</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7402304.535486695</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>5</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>46.01158824</v>
+      </c>
+      <c r="I179" t="n">
+        <v>23.43254546</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>4647</v>
+      </c>
+      <c r="B180" t="n">
+        <v>455576.2169239347</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7284936.716519298</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>5</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>55.86924131000001</v>
+      </c>
+      <c r="I180" t="n">
+        <v>12.03543033</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
